--- a/branches/master/StructureDefinition-FancyIG.xlsx
+++ b/branches/master/StructureDefinition-FancyIG.xlsx
@@ -54,13 +54,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T23:10:07+00:00</t>
+    <t>2022-02-08T23:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>Your Work Group</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-FancyIG.xlsx
+++ b/branches/master/StructureDefinition-FancyIG.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T23:22:22+00:00</t>
+    <t>2022-02-08T23:23:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>

--- a/branches/master/StructureDefinition-FancyIG.xlsx
+++ b/branches/master/StructureDefinition-FancyIG.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T23:23:08+00:00</t>
+    <t>2022-02-08T23:29:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-FancyIG.xlsx
+++ b/branches/master/StructureDefinition-FancyIG.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/FancyIG</t>
+    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/FancyIG</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T23:29:44+00:00</t>
+    <t>2022-02-10T16:41:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-FancyIG.xlsx
+++ b/branches/master/StructureDefinition-FancyIG.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T16:41:55+00:00</t>
+    <t>2022-02-10T18:54:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
